--- a/drug_probabilities.xlsx
+++ b/drug_probabilities.xlsx
@@ -22,13 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
-    <t xml:space="preserve">A</t>
+    <t xml:space="preserve">Good</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
+    <t xml:space="preserve">Neutral</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
+    <t xml:space="preserve">Diseased</t>
   </si>
 </sst>
 </file>
@@ -132,10 +132,10 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -154,15 +154,9 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
@@ -170,15 +164,9 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
@@ -186,15 +174,9 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
